--- a/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5459,7 +5459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>251</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>267</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>306</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>342</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>381</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>389</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>517</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>524</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>527</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>533</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>540</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>543</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>580</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>587</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>590</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>595</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>602</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>605</v>
       </c>
@@ -27299,7 +27299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>731</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>738</v>
       </c>
@@ -27905,7 +27905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>741</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>748</v>
       </c>
@@ -28877,7 +28877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>755</v>
       </c>
@@ -28999,7 +28999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
         <v>758</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>764</v>
       </c>
@@ -29969,7 +29969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" hidden="true">
+    <row r="218">
       <c r="A218" t="s" s="2">
         <v>771</v>
       </c>
@@ -30091,7 +30091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>774</v>
       </c>
@@ -32517,7 +32517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" hidden="true">
+    <row r="239">
       <c r="A239" t="s" s="2">
         <v>845</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
         <v>852</v>
       </c>
@@ -33123,7 +33123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" hidden="true">
+    <row r="244">
       <c r="A244" t="s" s="2">
         <v>855</v>
       </c>
@@ -34701,7 +34701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>876</v>
       </c>
@@ -35185,7 +35185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>883</v>
       </c>
@@ -35307,7 +35307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>886</v>
       </c>
@@ -36887,7 +36887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>908</v>
       </c>
@@ -37371,7 +37371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" hidden="true">
+    <row r="279">
       <c r="A279" t="s" s="2">
         <v>915</v>
       </c>
@@ -37493,7 +37493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" hidden="true">
+    <row r="280">
       <c r="A280" t="s" s="2">
         <v>918</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" hidden="true">
+    <row r="284">
       <c r="A284" t="s" s="2">
         <v>923</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" hidden="true">
+    <row r="288">
       <c r="A288" t="s" s="2">
         <v>930</v>
       </c>
@@ -38585,7 +38585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" hidden="true">
+    <row r="289">
       <c r="A289" t="s" s="2">
         <v>933</v>
       </c>
@@ -39071,7 +39071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" hidden="true">
+    <row r="293">
       <c r="A293" t="s" s="2">
         <v>939</v>
       </c>
@@ -39555,7 +39555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" hidden="true">
+    <row r="297">
       <c r="A297" t="s" s="2">
         <v>946</v>
       </c>
@@ -39677,7 +39677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" hidden="true">
+    <row r="298">
       <c r="A298" t="s" s="2">
         <v>948</v>
       </c>
@@ -40165,7 +40165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" hidden="true">
+    <row r="302">
       <c r="A302" t="s" s="2">
         <v>955</v>
       </c>
@@ -40649,7 +40649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" hidden="true">
+    <row r="306">
       <c r="A306" t="s" s="2">
         <v>962</v>
       </c>
@@ -40771,7 +40771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" hidden="true">
+    <row r="307">
       <c r="A307" t="s" s="2">
         <v>965</v>
       </c>
@@ -42351,7 +42351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" hidden="true">
+    <row r="320">
       <c r="A320" t="s" s="2">
         <v>985</v>
       </c>
@@ -42835,7 +42835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" hidden="true">
+    <row r="324">
       <c r="A324" t="s" s="2">
         <v>990</v>
       </c>
@@ -42957,7 +42957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" hidden="true">
+    <row r="325">
       <c r="A325" t="s" s="2">
         <v>992</v>
       </c>
@@ -43445,7 +43445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" hidden="true">
+    <row r="329">
       <c r="A329" t="s" s="2">
         <v>997</v>
       </c>
@@ -43929,7 +43929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" hidden="true">
+    <row r="333">
       <c r="A333" t="s" s="2">
         <v>1002</v>
       </c>
@@ -44051,7 +44051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" hidden="true">
+    <row r="334">
       <c r="A334" t="s" s="2">
         <v>1004</v>
       </c>
@@ -44541,12 +44541,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP337">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-genomic-variant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
